--- a/出貨前,由Oracle匯入測試用.xlsx
+++ b/出貨前,由Oracle匯入測試用.xlsx
@@ -379,10 +379,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -424,7 +427,7 @@
         <v>77</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <v>45810.582638888889</v>
